--- a/Sep19/all_countries/Tables/income-M_%gdp.xlsx
+++ b/Sep19/all_countries/Tables/income-M_%gdp.xlsx
@@ -489,16 +489,16 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>0.2150956608568527</v>
+        <v>0.2149984677061318</v>
       </c>
       <c r="C2">
-        <v>1007534436142</v>
+        <v>1010352780318</v>
       </c>
       <c r="D2">
-        <v>44453016000000</v>
+        <v>44983624000000</v>
       </c>
       <c r="E2">
-        <v>1072622167.25</v>
+        <v>1096199438.25</v>
       </c>
       <c r="F2">
         <v>14115446032323.57</v>
@@ -507,28 +507,28 @@
         <v>1156444632258.877</v>
       </c>
       <c r="H2">
-        <v>0.08689194296698299</v>
+        <v>0.08583873029049346</v>
       </c>
       <c r="I2">
-        <v>0.06020355350571033</v>
+        <v>0.05974841196395567</v>
       </c>
       <c r="J2">
-        <v>0.09683785190853562</v>
+        <v>0.09557152195591129</v>
       </c>
       <c r="K2">
-        <v>0.07890837820741624</v>
+        <v>0.07804383723112515</v>
       </c>
       <c r="L2">
-        <v>0.01167494058437957</v>
+        <v>0.01153342924281131</v>
       </c>
       <c r="M2">
-        <v>0.00808904584415566</v>
+        <v>0.008027892297854047</v>
       </c>
       <c r="N2">
-        <v>0.0583747029218975</v>
+        <v>0.05766714621405619</v>
       </c>
       <c r="O2">
-        <v>0.04044522922077814</v>
+        <v>0.04013946148927007</v>
       </c>
     </row>
     <row r="3" spans="1:15">
